--- a/Drugs.xlsx
+++ b/Drugs.xlsx
@@ -5,29 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Desktop\classes2021\Dissertation\spreadsheet_processes\blockly-spaces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugogiao\OneDrive - VG\Ambiente de Trabalho\blockly-spaces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6860F20E-1C78-4AEC-8D2D-D58FEA4876F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF90C87F-63E2-4E51-93CB-85BDE7811299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1F8EEE6D-FA96-4B58-8DDF-CFD2F1486EE6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F8EEE6D-FA96-4B58-8DDF-CFD2F1486EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
-    <t>Vial(mg)</t>
-  </si>
-  <si>
     <t>Drugs</t>
   </si>
   <si>
@@ -67,6 +55,9 @@
   </si>
   <si>
     <t>Need</t>
+  </si>
+  <si>
+    <t>Vial_mg</t>
   </si>
 </sst>
 </file>
@@ -122,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -421,34 +412,34 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -457,18 +448,18 @@
         <v>6.41</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>3841</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -477,12 +468,12 @@
         <v>11.8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>450</v>
@@ -491,10 +482,11 @@
         <v>25.75</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>